--- a/CSV/DEMAND_TEST_FILL_CLOSEST.xlsx
+++ b/CSV/DEMAND_TEST_FILL_CLOSEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsmagnusjohnsen/Documents/Masteroppgave/StructuralCircle/structuralCircle/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A621B6B7-4A49-974F-AAFC-606B07B5C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862094EF-4BA5-FF49-A6B1-7AFDCF118DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Guid</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>0OnxKnweDAt9hOIopLidKD</t>
   </si>
   <si>
-    <t>Sognsveien 17,0855,Oslo,Norway</t>
-  </si>
-  <si>
     <t>0OnxKnweDAt9hOIopLidLA</t>
   </si>
   <si>
@@ -180,6 +174,12 @@
   </si>
   <si>
     <t>Steel</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Staal bygg</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,6 +250,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +346,7 @@
       <calculatedColumnFormula>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{76C4F9D9-7D74-460C-A3C8-63191A520055}" name="Material"/>
-    <tableColumn id="7" xr3:uid="{87A5F30D-726B-41E6-A422-50D1E705936D}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{87A5F30D-726B-41E6-A422-50D1E705936D}" name="Manufacturer"/>
     <tableColumn id="8" xr3:uid="{9EAC117C-CD9F-465E-90A0-6A55F28FCF5E}" name="Latitude"/>
     <tableColumn id="9" xr3:uid="{104449E2-7462-4963-8148-1C2E25DF455A}" name="Longitude"/>
   </tableColumns>
@@ -641,7 +642,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -670,19 +671,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -690,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>7.7205999999999992</v>
@@ -703,7 +704,7 @@
         <v>7.8305497377409058E-6</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -711,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7.7205999999999992</v>
@@ -724,16 +725,16 @@
         <v>7.830549737740899E-6</v>
       </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3">
-        <v>59.941616058333331</v>
-      </c>
-      <c r="I3">
-        <v>10.729945182777779</v>
+        <v>59.941600000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10.729939999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -741,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>7.7205999999999992</v>
@@ -754,7 +755,7 @@
         <v>7.83054973774096E-6</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -762,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>7.7205999999999966</v>
@@ -775,7 +776,7 @@
         <v>7.8305497377593067E-6</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -783,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>7.7205999999999966</v>
@@ -796,7 +797,7 @@
         <v>7.8305497377593033E-6</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -804,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>7.7205999999999966</v>
@@ -817,7 +818,7 @@
         <v>7.8305497377593135E-6</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -825,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7.7205999999999966</v>
@@ -838,7 +839,7 @@
         <v>7.8305497377593101E-6</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -846,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>7.8097539999999972</v>
@@ -859,7 +860,7 @@
         <v>8.0122550932442682E-6</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -867,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>7.8097539999999963</v>
@@ -880,7 +881,7 @@
         <v>8.0122550932442648E-6</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -888,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>7.8097539999999972</v>
@@ -901,7 +902,7 @@
         <v>8.0122550932442682E-6</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -909,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>7.8097539999999963</v>
@@ -922,7 +923,7 @@
         <v>8.0122550932442648E-6</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -930,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>7.7205999999999992</v>
@@ -943,7 +944,7 @@
         <v>7.8305497377409329E-6</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -951,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>7.9999999999999956</v>
@@ -964,7 +965,7 @@
         <v>8.4069653593721274E-6</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -972,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>7.9999999999999956</v>
@@ -985,7 +986,7 @@
         <v>8.4069653593721409E-6</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -993,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>7.9999999999999956</v>
@@ -1006,7 +1007,7 @@
         <v>8.4069653593721274E-6</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1014,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>7.9999999999999938</v>
@@ -1027,7 +1028,7 @@
         <v>8.4069653593720596E-6</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1035,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>7.9999999999999947</v>
@@ -1048,7 +1049,7 @@
         <v>8.4069653593721274E-6</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1056,7 +1057,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>7.9999999999999956</v>
@@ -1069,7 +1070,7 @@
         <v>8.4069653593721409E-6</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1077,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>7.9999999999999947</v>
@@ -1090,7 +1091,7 @@
         <v>8.4069653593721274E-6</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1098,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>7.9999999999999947</v>
@@ -1111,7 +1112,7 @@
         <v>8.4069653593720782E-6</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1119,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>7.8097539999999981</v>
@@ -1132,7 +1133,7 @@
         <v>8.012255093243948E-6</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1140,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>7.8097539999999972</v>
@@ -1153,7 +1154,7 @@
         <v>8.012255093244319E-6</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>7.8097539999999981</v>
@@ -1174,7 +1175,7 @@
         <v>8.012255093244319E-6</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,7 +1183,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>7.8097539999999963</v>
@@ -1195,7 +1196,7 @@
         <v>8.012255093244319E-6</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>7.9999999999999956</v>
@@ -1216,7 +1217,7 @@
         <v>8.4069653593721409E-6</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1224,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>7.9999999999999973</v>
@@ -1237,7 +1238,7 @@
         <v>8.4069653593720596E-6</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1245,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>7.9999999999999956</v>
@@ -1258,7 +1259,7 @@
         <v>8.4069653593721409E-6</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1266,7 +1267,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>7.9999999999999956</v>
@@ -1279,7 +1280,7 @@
         <v>8.4069653593720596E-6</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1287,7 +1288,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>7.9796453762421917</v>
@@ -1300,7 +1301,7 @@
         <v>8.36428152720485E-6</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1308,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>7.9796453762421979</v>
@@ -1321,16 +1322,16 @@
         <v>8.3642815272048855E-6</v>
       </c>
       <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
         <v>48</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
       <c r="H31">
-        <v>59.941616058333331</v>
+        <v>59.941609999999997</v>
       </c>
       <c r="I31">
-        <v>10.729945182777779</v>
+        <v>10.729939999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1338,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>7.9796453762421979</v>
@@ -1351,16 +1352,7 @@
         <v>8.3642815272048008E-6</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>59.941616058333331</v>
-      </c>
-      <c r="I32">
-        <v>10.729945182777779</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1368,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>7.9796453762421908</v>
@@ -1381,7 +1373,7 @@
         <v>8.364281527204833E-6</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>3.1</v>
@@ -1402,7 +1394,7 @@
         <v>1.7797626251869681E-6</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,7 +1402,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>5.5</v>
@@ -1423,7 +1415,7 @@
         <v>5.5825750949502136E-6</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,7 +1423,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>3.1</v>
@@ -1444,7 +1436,7 @@
         <v>1.7797626251869681E-6</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1452,7 +1444,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>3.1</v>
@@ -1465,7 +1457,7 @@
         <v>1.7797626251869681E-6</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,7 +1465,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -1486,7 +1478,7 @@
         <v>5.5825750949502136E-6</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>3.1</v>
@@ -1507,7 +1499,7 @@
         <v>1.7797626251869681E-6</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
